--- a/inputData/Red_wOrange_V1.xlsx
+++ b/inputData/Red_wOrange_V1.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unmm-my.sharepoint.com/personal/majic_unm_edu/Documents/Disertacion Marzo 2020/Second Empirical Paper 2022/Analysis 2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unmm-my.sharepoint.com/personal/majic_unm_edu/Documents/Disertacion Marzo 2020/Second Empirical Paper 2022/Analysis 2023/inputData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBBFD3BC-B335-48F2-9B35-29F14B0E0B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{DBBFD3BC-B335-48F2-9B35-29F14B0E0B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2304A3F2-0BFD-4F46-B19F-E57F9C31BB7F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{B22ACAE9-2568-4088-8FAF-FBD9200F295E}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{B22ACAE9-2568-4088-8FAF-FBD9200F295E}"/>
   </bookViews>
   <sheets>
     <sheet name="Red_wOrange_Video_1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Red_wOrange_Video_1!$A$1:$D$330</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Red_wOrange_Video_1!$A$1:$D$331</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="34">
   <si>
     <t>Sync Time</t>
   </si>
@@ -132,6 +132,15 @@
   </si>
   <si>
     <t>Red_1_13</t>
+  </si>
+  <si>
+    <t>Red_1_14</t>
+  </si>
+  <si>
+    <t>Red_1_15</t>
+  </si>
+  <si>
+    <t>Red_1_16</t>
   </si>
 </sst>
 </file>
@@ -259,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -276,6 +285,10 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -291,6 +304,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -590,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC99F00C-3AE6-4B72-923A-E4B9EF350871}">
-  <dimension ref="A1:E330"/>
+  <dimension ref="A1:E424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD47"/>
+    <sheetView tabSelected="1" topLeftCell="A354" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K390" sqref="K390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1387,7 +1404,7 @@
     </row>
     <row r="47" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
-        <v>3.8923611111111116E-3</v>
+        <v>3.9363425925925928E-3</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>15</v>
@@ -1761,16 +1778,16 @@
     </row>
     <row r="69" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
-        <v>4.5868055555555549E-3</v>
+        <v>4.604166666666667E-3</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D69" s="7">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E69" s="7">
         <v>3</v>
@@ -1778,1197 +1795,1197 @@
     </row>
     <row r="70" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
+        <v>4.6307870370370366E-3</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="7">
+        <v>19</v>
+      </c>
+      <c r="E70" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="5">
         <v>6.2743055555555573E-3</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B71" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C70" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="7">
-        <v>2</v>
-      </c>
-      <c r="E70" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="8">
-        <v>6.3726851851851861E-3</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71" s="4">
-        <v>30</v>
-      </c>
-      <c r="E71" s="10">
+      <c r="C71" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="7">
+        <v>2</v>
+      </c>
+      <c r="E71" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="8">
-        <v>6.3946759259259252E-3</v>
+        <v>6.3726851851851861E-3</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D72" s="4">
-        <v>7</v>
-      </c>
-      <c r="E72" s="7">
+        <v>30</v>
+      </c>
+      <c r="E72" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="8">
-        <v>6.4004629629629637E-3</v>
+        <v>6.3946759259259252E-3</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D73" s="4">
-        <v>1</v>
-      </c>
-      <c r="E73" s="10">
+        <v>7</v>
+      </c>
+      <c r="E73" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="8">
-        <v>6.4062500000000005E-3</v>
+        <v>6.4004629629629637E-3</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D74" s="4">
-        <v>30</v>
-      </c>
-      <c r="E74" s="7">
+        <v>1</v>
+      </c>
+      <c r="E74" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="8">
-        <v>6.4120370370370373E-3</v>
+        <v>6.4062500000000005E-3</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D75" s="4">
-        <v>19</v>
-      </c>
-      <c r="E75" s="10">
+        <v>30</v>
+      </c>
+      <c r="E75" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="8">
-        <v>6.4432870370370373E-3</v>
+        <v>6.4120370370370373E-3</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D76" s="4">
-        <v>30</v>
-      </c>
-      <c r="E76" s="7">
+        <v>19</v>
+      </c>
+      <c r="E76" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="8">
-        <v>6.4490740740740741E-3</v>
+        <v>6.4432870370370373E-3</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D77" s="4">
-        <v>33</v>
-      </c>
-      <c r="E77" s="10">
+        <v>30</v>
+      </c>
+      <c r="E77" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="8">
-        <v>6.5104166666666678E-3</v>
+        <v>6.4490740740740741E-3</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" s="4">
-        <v>1</v>
-      </c>
-      <c r="E78" s="7">
+        <v>33</v>
+      </c>
+      <c r="E78" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="8">
-        <v>6.5428240740740759E-3</v>
+        <v>6.5104166666666678E-3</v>
       </c>
       <c r="B79" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" s="4">
-        <v>2</v>
-      </c>
-      <c r="E79" s="10">
+        <v>1</v>
+      </c>
+      <c r="E79" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="8">
-        <v>6.5682870370370374E-3</v>
+        <v>6.5428240740740759E-3</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D80" s="4">
-        <v>1</v>
-      </c>
-      <c r="E80" s="7">
+        <v>2</v>
+      </c>
+      <c r="E80" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="8">
-        <v>6.5972222222222231E-3</v>
+        <v>6.5682870370370374E-3</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D81" s="4">
-        <v>33</v>
-      </c>
-      <c r="E81" s="10">
+        <v>1</v>
+      </c>
+      <c r="E81" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="8">
-        <v>6.6030092592592599E-3</v>
+        <v>6.5972222222222231E-3</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" s="4">
-        <v>1</v>
-      </c>
-      <c r="E82" s="7">
+        <v>33</v>
+      </c>
+      <c r="E82" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="8">
-        <v>6.6145833333333334E-3</v>
+        <v>6.6030092592592599E-3</v>
       </c>
       <c r="B83" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D83" s="4">
-        <v>33</v>
-      </c>
-      <c r="E83" s="10">
+        <v>1</v>
+      </c>
+      <c r="E83" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="8">
-        <v>6.6238425925925926E-3</v>
+        <v>6.6145833333333334E-3</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" s="4">
-        <v>1</v>
-      </c>
-      <c r="E84" s="7">
+        <v>33</v>
+      </c>
+      <c r="E84" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="8">
-        <v>6.7210648148148151E-3</v>
+        <v>6.6238425925925926E-3</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="4">
-        <v>2</v>
-      </c>
-      <c r="E85" s="10">
+        <v>1</v>
+      </c>
+      <c r="E85" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="8">
-        <v>6.7303240740740743E-3</v>
+        <v>6.7210648148148151E-3</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D86" s="4">
-        <v>1</v>
-      </c>
-      <c r="E86" s="7">
+        <v>2</v>
+      </c>
+      <c r="E86" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="8">
-        <v>6.7499999999999991E-3</v>
+        <v>6.7303240740740743E-3</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="4">
-        <v>2</v>
-      </c>
-      <c r="E87" s="10">
+        <v>1</v>
+      </c>
+      <c r="E87" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="8">
-        <v>6.7534722222222232E-3</v>
+        <v>6.7499999999999991E-3</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D88" s="4">
-        <v>19</v>
-      </c>
-      <c r="E88" s="7">
+        <v>2</v>
+      </c>
+      <c r="E88" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="8">
-        <v>6.7627314814814824E-3</v>
+        <v>6.7534722222222232E-3</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D89" s="4">
-        <v>23</v>
-      </c>
-      <c r="E89" s="10">
+        <v>19</v>
+      </c>
+      <c r="E89" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="8">
-        <v>6.7789351851851865E-3</v>
+        <v>6.7627314814814824E-3</v>
       </c>
       <c r="B90" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D90" s="4">
-        <v>1</v>
-      </c>
-      <c r="E90" s="7">
+        <v>23</v>
+      </c>
+      <c r="E90" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="8">
-        <v>6.8437499999999991E-3</v>
+        <v>6.7789351851851865E-3</v>
       </c>
       <c r="B91" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D91" s="4">
-        <v>19</v>
-      </c>
-      <c r="E91" s="10">
+        <v>1</v>
+      </c>
+      <c r="E91" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="8">
-        <v>6.8472222222222233E-3</v>
+        <v>6.8437499999999991E-3</v>
       </c>
       <c r="B92" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D92" s="4">
-        <v>1</v>
-      </c>
-      <c r="E92" s="7">
+        <v>19</v>
+      </c>
+      <c r="E92" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="8">
-        <v>6.8784722222222233E-3</v>
+        <v>6.8472222222222233E-3</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" s="4">
-        <v>2</v>
-      </c>
-      <c r="E93" s="10">
+        <v>1</v>
+      </c>
+      <c r="E93" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="8">
-        <v>6.9652777777777786E-3</v>
+        <v>6.8784722222222233E-3</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D94" s="4">
-        <v>33</v>
-      </c>
-      <c r="E94" s="7">
+        <v>2</v>
+      </c>
+      <c r="E94" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="5">
-        <v>6.968750000000001E-3</v>
-      </c>
-      <c r="B95" s="6" t="s">
+    <row r="95" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="8">
+        <v>6.9652777777777786E-3</v>
+      </c>
+      <c r="B95" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C95" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D95" s="7">
-        <v>33</v>
-      </c>
-      <c r="E95" s="10">
+      <c r="C95" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="4">
+        <v>33</v>
+      </c>
+      <c r="E95" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="5">
+        <v>6.968750000000001E-3</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" s="7">
+        <v>33</v>
+      </c>
+      <c r="E96" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="5">
         <v>7.8599537037037058E-3</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B97" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C96" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="7">
-        <v>1</v>
-      </c>
-      <c r="E96" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="8">
-        <v>7.8807870370370368E-3</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D97" s="4">
-        <v>33</v>
-      </c>
-      <c r="E97" s="10">
+      <c r="C97" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="7">
+        <v>1</v>
+      </c>
+      <c r="E97" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="8">
-        <v>7.9479166666666656E-3</v>
+        <v>7.8807870370370368E-3</v>
       </c>
       <c r="B98" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D98" s="4">
-        <v>19</v>
-      </c>
-      <c r="E98" s="7">
+        <v>33</v>
+      </c>
+      <c r="E98" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="8">
-        <v>7.9560185185185185E-3</v>
+        <v>7.9479166666666656E-3</v>
       </c>
       <c r="B99" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D99" s="4">
-        <v>33</v>
-      </c>
-      <c r="E99" s="10">
+        <v>19</v>
+      </c>
+      <c r="E99" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="8">
-        <v>7.9965277777777777E-3</v>
+        <v>7.9560185185185185E-3</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" s="4">
-        <v>1</v>
-      </c>
-      <c r="E100" s="7">
+        <v>33</v>
+      </c>
+      <c r="E100" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="8">
-        <v>8.2129629629629636E-3</v>
+        <v>7.9965277777777777E-3</v>
       </c>
       <c r="B101" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D101" s="4">
-        <v>33</v>
-      </c>
-      <c r="E101" s="10">
+        <v>1</v>
+      </c>
+      <c r="E101" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="8">
-        <v>8.2187500000000004E-3</v>
+        <v>8.2129629629629636E-3</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D102" s="4">
-        <v>13</v>
-      </c>
-      <c r="E102" s="7">
+        <v>33</v>
+      </c>
+      <c r="E102" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="8">
-        <v>8.2268518518518532E-3</v>
+        <v>8.2187500000000004E-3</v>
       </c>
       <c r="B103" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D103" s="4">
-        <v>33</v>
-      </c>
-      <c r="E103" s="10">
+        <v>13</v>
+      </c>
+      <c r="E103" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="8">
-        <v>8.23263888888889E-3</v>
+        <v>8.2268518518518532E-3</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" s="4">
-        <v>1</v>
-      </c>
-      <c r="E104" s="7">
+        <v>33</v>
+      </c>
+      <c r="E104" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="8">
-        <v>8.261574074074074E-3</v>
+        <v>8.23263888888889E-3</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D105" s="4">
-        <v>14</v>
-      </c>
-      <c r="E105" s="10">
+        <v>1</v>
+      </c>
+      <c r="E105" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="8">
-        <v>8.2789351851851843E-3</v>
+        <v>8.261574074074074E-3</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D106" s="4">
-        <v>1</v>
-      </c>
-      <c r="E106" s="7">
+        <v>14</v>
+      </c>
+      <c r="E106" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="8">
-        <v>8.293981481481482E-3</v>
+        <v>8.2789351851851843E-3</v>
       </c>
       <c r="B107" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D107" s="4">
-        <v>14</v>
-      </c>
-      <c r="E107" s="10">
+        <v>1</v>
+      </c>
+      <c r="E107" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="8">
-        <v>8.3402777777777781E-3</v>
+        <v>8.293981481481482E-3</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D108" s="4">
-        <v>1</v>
-      </c>
-      <c r="E108" s="7">
+        <v>14</v>
+      </c>
+      <c r="E108" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="8">
-        <v>8.3599537037037028E-3</v>
+        <v>8.3402777777777781E-3</v>
       </c>
       <c r="B109" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D109" s="4">
-        <v>33</v>
-      </c>
-      <c r="E109" s="10">
+        <v>1</v>
+      </c>
+      <c r="E109" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="8">
-        <v>8.3692129629629637E-3</v>
+        <v>8.3599537037037028E-3</v>
       </c>
       <c r="B110" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D110" s="4">
-        <v>14</v>
-      </c>
-      <c r="E110" s="7">
+        <v>33</v>
+      </c>
+      <c r="E110" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="8">
-        <v>8.3923611111111109E-3</v>
+        <v>8.3692129629629637E-3</v>
       </c>
       <c r="B111" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D111" s="4">
-        <v>7</v>
-      </c>
-      <c r="E111" s="10">
+        <v>14</v>
+      </c>
+      <c r="E111" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="8">
-        <v>8.4004629629629637E-3</v>
+        <v>8.3923611111111109E-3</v>
       </c>
       <c r="B112" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D112" s="4">
-        <v>9</v>
-      </c>
-      <c r="E112" s="7">
+        <v>7</v>
+      </c>
+      <c r="E112" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="8">
-        <v>8.4618055555555557E-3</v>
+        <v>8.4004629629629637E-3</v>
       </c>
       <c r="B113" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D113" s="4">
-        <v>7</v>
-      </c>
-      <c r="E113" s="10">
+        <v>9</v>
+      </c>
+      <c r="E113" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="8">
-        <v>8.4733796296296293E-3</v>
+        <v>8.4618055555555557E-3</v>
       </c>
       <c r="B114" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D114" s="4">
-        <v>6</v>
-      </c>
-      <c r="E114" s="7">
+        <v>7</v>
+      </c>
+      <c r="E114" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="8">
-        <v>8.533564814814815E-3</v>
+        <v>8.4733796296296293E-3</v>
       </c>
       <c r="B115" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C115" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D115" s="4">
+        <v>6</v>
+      </c>
+      <c r="E115" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="8">
+        <v>8.533564814814815E-3</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D115" s="4">
-        <v>9</v>
-      </c>
-      <c r="E115" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="5">
-        <v>8.5543981481481495E-3</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" s="7">
-        <v>9</v>
-      </c>
-      <c r="E116" s="7">
+      <c r="D116" s="4">
+        <v>9</v>
+      </c>
+      <c r="E116" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="5">
+        <v>8.5543981481481495E-3</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="7">
+        <v>9</v>
+      </c>
+      <c r="E117" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="5">
         <v>9.0532407407407402E-3</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B118" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C117" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D117" s="7">
-        <v>33</v>
-      </c>
-      <c r="E117" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="8">
-        <v>9.0648148148148137E-3</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D118" s="4">
-        <v>14</v>
-      </c>
-      <c r="E118" s="10">
+      <c r="C118" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118" s="7">
+        <v>33</v>
+      </c>
+      <c r="E118" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="8">
-        <v>9.0659722222222218E-3</v>
+        <v>9.0648148148148137E-3</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D119" s="4">
-        <v>33</v>
-      </c>
-      <c r="E119" s="7">
+        <v>14</v>
+      </c>
+      <c r="E119" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="8">
-        <v>9.0671296296296298E-3</v>
+        <v>9.0659722222222218E-3</v>
       </c>
       <c r="B120" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D120" s="4">
-        <v>30</v>
-      </c>
-      <c r="E120" s="10">
+        <v>33</v>
+      </c>
+      <c r="E120" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="8">
-        <v>9.0752314814814827E-3</v>
+        <v>9.0671296296296298E-3</v>
       </c>
       <c r="B121" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D121" s="4">
-        <v>33</v>
-      </c>
-      <c r="E121" s="7">
+        <v>30</v>
+      </c>
+      <c r="E121" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="8">
-        <v>9.0775462962962954E-3</v>
+        <v>9.0752314814814827E-3</v>
       </c>
       <c r="B122" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D122" s="4">
-        <v>30</v>
-      </c>
-      <c r="E122" s="10">
+        <v>33</v>
+      </c>
+      <c r="E122" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="8">
-        <v>9.0879629629629644E-3</v>
+        <v>9.0775462962962954E-3</v>
       </c>
       <c r="B123" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D123" s="4">
-        <v>33</v>
-      </c>
-      <c r="E123" s="7">
+        <v>30</v>
+      </c>
+      <c r="E123" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="124" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="8">
-        <v>9.0891203703703724E-3</v>
+        <v>9.0879629629629644E-3</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D124" s="4">
-        <v>30</v>
-      </c>
-      <c r="E124" s="10">
+        <v>33</v>
+      </c>
+      <c r="E124" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="8">
-        <v>9.1030092592592586E-3</v>
+        <v>9.0891203703703724E-3</v>
       </c>
       <c r="B125" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D125" s="4">
-        <v>14</v>
-      </c>
-      <c r="E125" s="7">
+        <v>30</v>
+      </c>
+      <c r="E125" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="8">
-        <v>9.1064814814814828E-3</v>
+        <v>9.1030092592592586E-3</v>
       </c>
       <c r="B126" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D126" s="4">
-        <v>30</v>
-      </c>
-      <c r="E126" s="10">
+        <v>14</v>
+      </c>
+      <c r="E126" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="8">
-        <v>9.1203703703703707E-3</v>
+        <v>9.1064814814814828E-3</v>
       </c>
       <c r="B127" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D127" s="4">
-        <v>23</v>
-      </c>
-      <c r="E127" s="7">
+        <v>30</v>
+      </c>
+      <c r="E127" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="8">
-        <v>9.130787037037038E-3</v>
+        <v>9.1203703703703707E-3</v>
       </c>
       <c r="B128" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D128" s="4">
-        <v>19</v>
-      </c>
-      <c r="E128" s="10">
+        <v>23</v>
+      </c>
+      <c r="E128" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="8">
-        <v>9.1516203703703725E-3</v>
+        <v>9.130787037037038E-3</v>
       </c>
       <c r="B129" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D129" s="4">
-        <v>30</v>
-      </c>
-      <c r="E129" s="7">
+        <v>19</v>
+      </c>
+      <c r="E129" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="8">
-        <v>9.1678240740740748E-3</v>
+        <v>9.1516203703703725E-3</v>
       </c>
       <c r="B130" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D130" s="4">
-        <v>33</v>
-      </c>
-      <c r="E130" s="10">
+        <v>30</v>
+      </c>
+      <c r="E130" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="8">
-        <v>9.1689814814814828E-3</v>
+        <v>9.1678240740740748E-3</v>
       </c>
       <c r="B131" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D131" s="4">
-        <v>30</v>
-      </c>
-      <c r="E131" s="7">
+        <v>33</v>
+      </c>
+      <c r="E131" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="8">
-        <v>9.1817129629629627E-3</v>
+        <v>9.1689814814814828E-3</v>
       </c>
       <c r="B132" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D132" s="4">
-        <v>92</v>
-      </c>
-      <c r="E132" s="10">
+        <v>30</v>
+      </c>
+      <c r="E132" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="8">
-        <v>9.1909722222222219E-3</v>
+        <v>9.1817129629629627E-3</v>
       </c>
       <c r="B133" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D133" s="4">
-        <v>1</v>
-      </c>
-      <c r="E133" s="7">
+        <v>92</v>
+      </c>
+      <c r="E133" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A134" s="8">
-        <v>9.1967592592592604E-3</v>
+        <v>9.1909722222222219E-3</v>
       </c>
       <c r="B134" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D134" s="4">
-        <v>33</v>
-      </c>
-      <c r="E134" s="10">
+        <v>1</v>
+      </c>
+      <c r="E134" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="135" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A135" s="8">
-        <v>9.2025462962962955E-3</v>
+        <v>9.1967592592592604E-3</v>
       </c>
       <c r="B135" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D135" s="4">
-        <v>14</v>
-      </c>
-      <c r="E135" s="7">
+        <v>33</v>
+      </c>
+      <c r="E135" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="136" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="8">
-        <v>9.2060185185185179E-3</v>
+        <v>9.2025462962962955E-3</v>
       </c>
       <c r="B136" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D136" s="4">
-        <v>1</v>
-      </c>
-      <c r="E136" s="10">
+        <v>14</v>
+      </c>
+      <c r="E136" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A137" s="8">
-        <v>9.2141203703703725E-3</v>
+        <v>9.2060185185185179E-3</v>
       </c>
       <c r="B137" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D137" s="4">
-        <v>14</v>
-      </c>
-      <c r="E137" s="7">
+        <v>1</v>
+      </c>
+      <c r="E137" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A138" s="8">
-        <v>9.2164351851851851E-3</v>
+        <v>9.2141203703703725E-3</v>
       </c>
       <c r="B138" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D138" s="4">
-        <v>7</v>
-      </c>
-      <c r="E138" s="10">
+        <v>14</v>
+      </c>
+      <c r="E138" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="139" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A139" s="8">
-        <v>9.2280092592592587E-3</v>
+        <v>9.2164351851851851E-3</v>
       </c>
       <c r="B139" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D139" s="4">
-        <v>14</v>
-      </c>
-      <c r="E139" s="7">
+        <v>7</v>
+      </c>
+      <c r="E139" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A140" s="8">
-        <v>9.2418981481481484E-3</v>
+        <v>9.2280092592592587E-3</v>
       </c>
       <c r="B140" s="9" t="s">
         <v>22</v>
@@ -2979,362 +2996,362 @@
       <c r="D140" s="4">
         <v>14</v>
       </c>
-      <c r="E140" s="10">
+      <c r="E140" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="141" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A141" s="8">
-        <v>9.2627314814814829E-3</v>
+        <v>9.2418981481481484E-3</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D141" s="4">
-        <v>1</v>
-      </c>
-      <c r="E141" s="7">
+        <v>14</v>
+      </c>
+      <c r="E141" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A142" s="8">
-        <v>9.2673611111111116E-3</v>
+        <v>9.2627314814814829E-3</v>
       </c>
       <c r="B142" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" s="4">
-        <v>2</v>
-      </c>
-      <c r="E142" s="10">
+        <v>1</v>
+      </c>
+      <c r="E142" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="143" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A143" s="8">
-        <v>9.2731481481481502E-3</v>
+        <v>9.2673611111111116E-3</v>
       </c>
       <c r="B143" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D143" s="4">
-        <v>19</v>
-      </c>
-      <c r="E143" s="7">
+        <v>2</v>
+      </c>
+      <c r="E143" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="144" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A144" s="8">
-        <v>9.2766203703703691E-3</v>
+        <v>9.2731481481481502E-3</v>
       </c>
       <c r="B144" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D144" s="4">
-        <v>2</v>
-      </c>
-      <c r="E144" s="10">
+        <v>19</v>
+      </c>
+      <c r="E144" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="8">
-        <v>9.2789351851851852E-3</v>
+        <v>9.2766203703703691E-3</v>
       </c>
       <c r="B145" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D145" s="4">
-        <v>1</v>
-      </c>
-      <c r="E145" s="7">
+        <v>2</v>
+      </c>
+      <c r="E145" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A146" s="8">
-        <v>9.28587962962963E-3</v>
+        <v>9.2789351851851852E-3</v>
       </c>
       <c r="B146" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D146" s="4">
-        <v>30</v>
-      </c>
-      <c r="E146" s="10">
+        <v>1</v>
+      </c>
+      <c r="E146" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="147" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A147" s="8">
-        <v>9.2951388888888892E-3</v>
+        <v>9.28587962962963E-3</v>
       </c>
       <c r="B147" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D147" s="4">
-        <v>33</v>
-      </c>
-      <c r="E147" s="7">
+        <v>30</v>
+      </c>
+      <c r="E147" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="148" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A148" s="8">
-        <v>9.3090277777777789E-3</v>
+        <v>9.2951388888888892E-3</v>
       </c>
       <c r="B148" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D148" s="4">
-        <v>14</v>
-      </c>
-      <c r="E148" s="10">
+        <v>33</v>
+      </c>
+      <c r="E148" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="149" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A149" s="8">
-        <v>9.326388888888891E-3</v>
+        <v>9.3090277777777789E-3</v>
       </c>
       <c r="B149" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D149" s="4">
-        <v>19</v>
-      </c>
-      <c r="E149" s="7">
+        <v>14</v>
+      </c>
+      <c r="E149" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A150" s="8">
-        <v>9.3495370370370381E-3</v>
+        <v>9.326388888888891E-3</v>
       </c>
       <c r="B150" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D150" s="4">
-        <v>1</v>
-      </c>
-      <c r="E150" s="10">
+        <v>19</v>
+      </c>
+      <c r="E150" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="151" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A151" s="8">
-        <v>9.387731481481483E-3</v>
+        <v>9.3495370370370381E-3</v>
       </c>
       <c r="B151" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D151" s="4">
-        <v>19</v>
-      </c>
-      <c r="E151" s="7">
+        <v>1</v>
+      </c>
+      <c r="E151" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="152" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A152" s="8">
-        <v>9.3935185185185181E-3</v>
+        <v>9.387731481481483E-3</v>
       </c>
       <c r="B152" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D152" s="4">
-        <v>1</v>
-      </c>
-      <c r="E152" s="10">
+        <v>19</v>
+      </c>
+      <c r="E152" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="153" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A153" s="8">
-        <v>9.3993055555555566E-3</v>
+        <v>9.3935185185185181E-3</v>
       </c>
       <c r="B153" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D153" s="4">
-        <v>19</v>
-      </c>
-      <c r="E153" s="7">
+        <v>1</v>
+      </c>
+      <c r="E153" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="154" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A154" s="8">
-        <v>9.4085648148148158E-3</v>
+        <v>9.3993055555555566E-3</v>
       </c>
       <c r="B154" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D154" s="4">
-        <v>1</v>
-      </c>
-      <c r="E154" s="10">
+        <v>19</v>
+      </c>
+      <c r="E154" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="155" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A155" s="8">
-        <v>9.5381944444444464E-3</v>
+        <v>9.4085648148148158E-3</v>
       </c>
       <c r="B155" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D155" s="4">
-        <v>19</v>
-      </c>
-      <c r="E155" s="7">
+        <v>1</v>
+      </c>
+      <c r="E155" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="156" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A156" s="8">
-        <v>9.5462962962962975E-3</v>
+        <v>9.5381944444444464E-3</v>
       </c>
       <c r="B156" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D156" s="4">
-        <v>1</v>
-      </c>
-      <c r="E156" s="10">
+        <v>19</v>
+      </c>
+      <c r="E156" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A157" s="8">
-        <v>9.6770833333333361E-3</v>
+        <v>9.5462962962962975E-3</v>
       </c>
       <c r="B157" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D157" s="4">
-        <v>33</v>
-      </c>
-      <c r="E157" s="7">
+        <v>1</v>
+      </c>
+      <c r="E157" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A158" s="8">
-        <v>9.6828703703703712E-3</v>
+        <v>9.6770833333333361E-3</v>
       </c>
       <c r="B158" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" s="4">
-        <v>1</v>
-      </c>
-      <c r="E158" s="10">
+        <v>33</v>
+      </c>
+      <c r="E158" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="5">
+    <row r="159" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="8">
+        <v>9.6828703703703712E-3</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="4">
+        <v>1</v>
+      </c>
+      <c r="E159" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="5">
         <v>9.7476851851851874E-3</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B160" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C159" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D159" s="7">
-        <v>1</v>
-      </c>
-      <c r="E159" s="7">
+      <c r="C160" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="7">
+        <v>1</v>
+      </c>
+      <c r="E160" s="7">
         <v>6</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A160" s="8">
-        <v>1.1137731481481481E-2</v>
-      </c>
-      <c r="B160" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D160" s="4">
-        <v>14</v>
-      </c>
-      <c r="E160">
-        <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="8">
-        <v>1.1171296296296299E-2</v>
+        <v>1.1137731481481481E-2</v>
       </c>
       <c r="B161" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D161" s="4">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E161">
         <v>7</v>
@@ -3342,16 +3359,16 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="8">
-        <v>1.1456018518518518E-2</v>
+        <v>1.1171296296296299E-2</v>
       </c>
       <c r="B162" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D162" s="4">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E162">
         <v>7</v>
@@ -3359,16 +3376,16 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="8">
-        <v>1.1471064814814816E-2</v>
+        <v>1.1456018518518518E-2</v>
       </c>
       <c r="B163" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D163" s="4">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E163">
         <v>7</v>
@@ -3376,16 +3393,16 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="8">
-        <v>1.1479166666666667E-2</v>
+        <v>1.1471064814814816E-2</v>
       </c>
       <c r="B164" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D164" s="4">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E164">
         <v>7</v>
@@ -3393,7 +3410,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="8">
-        <v>1.1832175925925927E-2</v>
+        <v>1.1479166666666667E-2</v>
       </c>
       <c r="B165" s="9" t="s">
         <v>23</v>
@@ -3410,33 +3427,33 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="8">
-        <v>1.2182870370370368E-2</v>
+        <v>1.1832175925925927E-2</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D166" s="4">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E166">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="8">
-        <v>1.2289351851851853E-2</v>
+        <v>1.2182870370370368E-2</v>
       </c>
       <c r="B167" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D167" s="4">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E167">
         <v>8</v>
@@ -3444,16 +3461,16 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="8">
-        <v>1.2300925925925927E-2</v>
+        <v>1.2289351851851853E-2</v>
       </c>
       <c r="B168" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" s="4">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E168">
         <v>8</v>
@@ -3461,16 +3478,16 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="8">
-        <v>1.2314814814814815E-2</v>
+        <v>1.2300925925925927E-2</v>
       </c>
       <c r="B169" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D169" s="4">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E169">
         <v>8</v>
@@ -3478,16 +3495,16 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="8">
-        <v>1.2366898148148148E-2</v>
+        <v>1.2314814814814815E-2</v>
       </c>
       <c r="B170" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D170" s="4">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E170">
         <v>8</v>
@@ -3495,16 +3512,16 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="8">
-        <v>1.2376157407407409E-2</v>
+        <v>1.2366898148148148E-2</v>
       </c>
       <c r="B171" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D171" s="4">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E171">
         <v>8</v>
@@ -3512,16 +3529,16 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="8">
-        <v>1.2428240740740741E-2</v>
+        <v>1.2376157407407409E-2</v>
       </c>
       <c r="B172" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D172" s="4">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E172">
         <v>8</v>
@@ -3529,16 +3546,16 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="8">
-        <v>1.243402777777778E-2</v>
+        <v>1.2428240740740741E-2</v>
       </c>
       <c r="B173" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" s="4">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E173">
         <v>8</v>
@@ -3546,16 +3563,16 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="8">
-        <v>1.2439814814814815E-2</v>
+        <v>1.243402777777778E-2</v>
       </c>
       <c r="B174" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D174" s="4">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E174">
         <v>8</v>
@@ -3563,16 +3580,16 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="8">
-        <v>1.2467592592592593E-2</v>
+        <v>1.2439814814814815E-2</v>
       </c>
       <c r="B175" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" s="4">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E175">
         <v>8</v>
@@ -3580,16 +3597,16 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="8">
-        <v>1.2473379629629629E-2</v>
+        <v>1.2467592592592593E-2</v>
       </c>
       <c r="B176" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D176" s="4">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E176">
         <v>8</v>
@@ -3597,16 +3614,16 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="8">
-        <v>1.2487268518518519E-2</v>
+        <v>1.2473379629629629E-2</v>
       </c>
       <c r="B177" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D177" s="4">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E177">
         <v>8</v>
@@ -3614,16 +3631,16 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="8">
-        <v>1.250810185185185E-2</v>
+        <v>1.2487268518518519E-2</v>
       </c>
       <c r="B178" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D178" s="4">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E178">
         <v>8</v>
@@ -3631,16 +3648,16 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="8">
-        <v>1.2513888888888889E-2</v>
+        <v>1.250810185185185E-2</v>
       </c>
       <c r="B179" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D179" s="4">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E179">
         <v>8</v>
@@ -3648,16 +3665,16 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="8">
-        <v>1.2716435185185187E-2</v>
+        <v>1.2513888888888889E-2</v>
       </c>
       <c r="B180" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D180" s="4">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E180">
         <v>8</v>
@@ -3665,16 +3682,16 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="8">
-        <v>1.2730324074074074E-2</v>
+        <v>1.2716435185185187E-2</v>
       </c>
       <c r="B181" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D181" s="4">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E181">
         <v>8</v>
@@ -3682,16 +3699,16 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="8">
-        <v>1.2762731481481481E-2</v>
+        <v>1.2730324074074074E-2</v>
       </c>
       <c r="B182" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D182" s="4">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E182">
         <v>8</v>
@@ -3699,16 +3716,16 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="8">
-        <v>1.2805555555555556E-2</v>
+        <v>1.2762731481481481E-2</v>
       </c>
       <c r="B183" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D183" s="4">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E183">
         <v>8</v>
@@ -3716,16 +3733,16 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="8">
-        <v>1.2819444444444446E-2</v>
+        <v>1.2805555555555556E-2</v>
       </c>
       <c r="B184" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D184" s="4">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E184">
         <v>8</v>
@@ -3733,16 +3750,16 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="8">
-        <v>1.2835648148148148E-2</v>
+        <v>1.2819444444444446E-2</v>
       </c>
       <c r="B185" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D185" s="4">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E185">
         <v>8</v>
@@ -3750,7 +3767,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="8">
-        <v>1.2877314814814815E-2</v>
+        <v>1.2835648148148148E-2</v>
       </c>
       <c r="B186" s="9" t="s">
         <v>24</v>
@@ -3767,10 +3784,10 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="8">
-        <v>1.4348379629629633E-2</v>
+        <v>1.2877314814814815E-2</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>10</v>
@@ -3779,21 +3796,21 @@
         <v>33</v>
       </c>
       <c r="E187">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="8">
-        <v>1.4353009259259258E-2</v>
+        <v>1.4348379629629633E-2</v>
       </c>
       <c r="B188" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D188" s="4">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E188">
         <v>9</v>
@@ -3801,16 +3818,16 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="8">
-        <v>1.4370370370370372E-2</v>
+        <v>1.4353009259259258E-2</v>
       </c>
       <c r="B189" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D189" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E189">
         <v>9</v>
@@ -3818,16 +3835,16 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="8">
-        <v>1.4392361111111111E-2</v>
+        <v>1.4370370370370372E-2</v>
       </c>
       <c r="B190" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D190" s="4">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E190">
         <v>9</v>
@@ -3835,16 +3852,16 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="8">
-        <v>1.440277777777778E-2</v>
+        <v>1.4392361111111111E-2</v>
       </c>
       <c r="B191" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D191" s="4">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E191">
         <v>9</v>
@@ -3852,16 +3869,16 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="8">
-        <v>1.4412037037037037E-2</v>
+        <v>1.440277777777778E-2</v>
       </c>
       <c r="B192" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D192" s="4">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E192">
         <v>9</v>
@@ -3869,16 +3886,16 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="8">
-        <v>1.4458333333333335E-2</v>
+        <v>1.4412037037037037E-2</v>
       </c>
       <c r="B193" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D193" s="4">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E193">
         <v>9</v>
@@ -3886,16 +3903,16 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="8">
-        <v>1.4510416666666666E-2</v>
+        <v>1.4458333333333335E-2</v>
       </c>
       <c r="B194" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D194" s="4">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E194">
         <v>9</v>
@@ -3903,16 +3920,16 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="8">
-        <v>1.454513888888889E-2</v>
+        <v>1.4510416666666666E-2</v>
       </c>
       <c r="B195" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D195" s="4">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E195">
         <v>9</v>
@@ -3920,16 +3937,16 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="8">
-        <v>1.4550925925925924E-2</v>
+        <v>1.454513888888889E-2</v>
       </c>
       <c r="B196" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D196" s="4">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="E196">
         <v>9</v>
@@ -3937,16 +3954,16 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="8">
-        <v>1.4565972222222221E-2</v>
+        <v>1.4550925925925924E-2</v>
       </c>
       <c r="B197" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D197" s="4">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="E197">
         <v>9</v>
@@ -3954,16 +3971,16 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="8">
-        <v>1.4577546296296295E-2</v>
+        <v>1.4565972222222221E-2</v>
       </c>
       <c r="B198" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D198" s="4">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E198">
         <v>9</v>
@@ -3971,16 +3988,16 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" s="8">
-        <v>1.4589120370370369E-2</v>
+        <v>1.4577546296296295E-2</v>
       </c>
       <c r="B199" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D199" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E199">
         <v>9</v>
@@ -3988,16 +4005,16 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" s="8">
-        <v>1.4611111111111115E-2</v>
+        <v>1.4589120370370369E-2</v>
       </c>
       <c r="B200" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D200" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E200">
         <v>9</v>
@@ -4005,16 +4022,16 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" s="8">
-        <v>1.4619212962962964E-2</v>
+        <v>1.4611111111111115E-2</v>
       </c>
       <c r="B201" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D201" s="4">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E201">
         <v>9</v>
@@ -4022,16 +4039,16 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" s="8">
-        <v>1.4636574074074074E-2</v>
+        <v>1.4619212962962964E-2</v>
       </c>
       <c r="B202" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D202" s="4">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E202">
         <v>9</v>
@@ -4039,16 +4056,16 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" s="8">
-        <v>1.4648148148148148E-2</v>
+        <v>1.4636574074074074E-2</v>
       </c>
       <c r="B203" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D203" s="4">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E203">
         <v>9</v>
@@ -4056,16 +4073,16 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" s="8">
-        <v>1.4668981481481482E-2</v>
+        <v>1.4648148148148148E-2</v>
       </c>
       <c r="B204" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D204" s="4">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E204">
         <v>9</v>
@@ -4073,16 +4090,16 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" s="8">
-        <v>1.4675925925925924E-2</v>
+        <v>1.4668981481481482E-2</v>
       </c>
       <c r="B205" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D205" s="4">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E205">
         <v>9</v>
@@ -4090,16 +4107,16 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" s="8">
-        <v>1.4701388888888891E-2</v>
+        <v>1.4675925925925924E-2</v>
       </c>
       <c r="B206" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D206" s="4">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E206">
         <v>9</v>
@@ -4107,16 +4124,16 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" s="8">
-        <v>1.4708333333333332E-2</v>
+        <v>1.4701388888888891E-2</v>
       </c>
       <c r="B207" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D207" s="4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E207">
         <v>9</v>
@@ -4124,16 +4141,16 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" s="8">
-        <v>1.4722222222222222E-2</v>
+        <v>1.4708333333333332E-2</v>
       </c>
       <c r="B208" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D208" s="4">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E208">
         <v>9</v>
@@ -4141,16 +4158,16 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" s="8">
-        <v>1.4736111111111115E-2</v>
+        <v>1.4722222222222222E-2</v>
       </c>
       <c r="B209" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D209" s="4">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E209">
         <v>9</v>
@@ -4158,16 +4175,16 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" s="8">
-        <v>1.481712962962963E-2</v>
+        <v>1.4736111111111115E-2</v>
       </c>
       <c r="B210" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D210" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E210">
         <v>9</v>
@@ -4175,16 +4192,16 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" s="8">
-        <v>1.4819444444444446E-2</v>
+        <v>1.481712962962963E-2</v>
       </c>
       <c r="B211" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D211" s="4">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E211">
         <v>9</v>
@@ -4192,16 +4209,16 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" s="8">
-        <v>1.4841435185185185E-2</v>
+        <v>1.4819444444444446E-2</v>
       </c>
       <c r="B212" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D212" s="4">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E212">
         <v>9</v>
@@ -4209,16 +4226,16 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" s="8">
-        <v>1.4861111111111111E-2</v>
+        <v>1.4841435185185185E-2</v>
       </c>
       <c r="B213" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D213" s="4">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E213">
         <v>9</v>
@@ -4226,16 +4243,16 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" s="8">
-        <v>1.486574074074074E-2</v>
+        <v>1.4861111111111111E-2</v>
       </c>
       <c r="B214" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D214" s="4">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E214">
         <v>9</v>
@@ -4243,16 +4260,16 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" s="8">
-        <v>1.4875000000000001E-2</v>
+        <v>1.486574074074074E-2</v>
       </c>
       <c r="B215" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D215" s="4">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E215">
         <v>9</v>
@@ -4260,16 +4277,16 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="8">
-        <v>1.488541666666667E-2</v>
+        <v>1.4875000000000001E-2</v>
       </c>
       <c r="B216" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D216" s="4">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E216">
         <v>9</v>
@@ -4277,16 +4294,16 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" s="8">
-        <v>1.503587962962963E-2</v>
+        <v>1.488541666666667E-2</v>
       </c>
       <c r="B217" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D217" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E217">
         <v>9</v>
@@ -4294,7 +4311,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" s="8">
-        <v>1.5042824074074075E-2</v>
+        <v>1.503587962962963E-2</v>
       </c>
       <c r="B218" s="9" t="s">
         <v>25</v>
@@ -4311,33 +4328,33 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" s="8">
-        <v>1.5221064814814814E-2</v>
+        <v>1.5042824074074075E-2</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D219" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E219">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" s="8">
-        <v>1.5243055555555557E-2</v>
+        <v>1.5221064814814814E-2</v>
       </c>
       <c r="B220" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D220" s="4">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E220">
         <v>10</v>
@@ -4345,16 +4362,16 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" s="8">
-        <v>1.5245370370370369E-2</v>
+        <v>1.5243055555555557E-2</v>
       </c>
       <c r="B221" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D221" s="4">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E221">
         <v>10</v>
@@ -4362,16 +4379,16 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" s="8">
-        <v>1.5265046296296296E-2</v>
+        <v>1.5245370370370369E-2</v>
       </c>
       <c r="B222" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D222" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E222">
         <v>10</v>
@@ -4379,16 +4396,16 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" s="8">
-        <v>1.5307870370370369E-2</v>
+        <v>1.5265046296296296E-2</v>
       </c>
       <c r="B223" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D223" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E223">
         <v>10</v>
@@ -4396,16 +4413,16 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" s="8">
-        <v>1.5374999999999998E-2</v>
+        <v>1.5307870370370369E-2</v>
       </c>
       <c r="B224" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D224" s="4">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E224">
         <v>10</v>
@@ -4413,16 +4430,16 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" s="8">
-        <v>1.5377314814814811E-2</v>
+        <v>1.5374999999999998E-2</v>
       </c>
       <c r="B225" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D225" s="4">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E225">
         <v>10</v>
@@ -4430,16 +4447,16 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" s="8">
-        <v>1.5383101851851851E-2</v>
+        <v>1.5377314814814811E-2</v>
       </c>
       <c r="B226" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D226" s="4">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E226">
         <v>10</v>
@@ -4447,16 +4464,16 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" s="8">
-        <v>1.5409722222222222E-2</v>
+        <v>1.5383101851851851E-2</v>
       </c>
       <c r="B227" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D227" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E227">
         <v>10</v>
@@ -4464,16 +4481,16 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" s="8">
-        <v>1.542476851851852E-2</v>
+        <v>1.5409722222222222E-2</v>
       </c>
       <c r="B228" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D228" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E228">
         <v>10</v>
@@ -4481,16 +4498,16 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" s="8">
-        <v>1.5427083333333333E-2</v>
+        <v>1.542476851851852E-2</v>
       </c>
       <c r="B229" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D229" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E229">
         <v>10</v>
@@ -4498,16 +4515,16 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" s="8">
-        <v>1.543865740740741E-2</v>
+        <v>1.5427083333333333E-2</v>
       </c>
       <c r="B230" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D230" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E230">
         <v>10</v>
@@ -4515,16 +4532,16 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" s="8">
-        <v>1.5450231481481483E-2</v>
+        <v>1.543865740740741E-2</v>
       </c>
       <c r="B231" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D231" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E231">
         <v>10</v>
@@ -4532,16 +4549,16 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" s="8">
-        <v>1.545601851851852E-2</v>
+        <v>1.5450231481481483E-2</v>
       </c>
       <c r="B232" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D232" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E232">
         <v>10</v>
@@ -4549,16 +4566,16 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" s="8">
-        <v>1.546990740740741E-2</v>
+        <v>1.545601851851852E-2</v>
       </c>
       <c r="B233" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D233" s="4">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E233">
         <v>10</v>
@@ -4566,16 +4583,16 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" s="8">
-        <v>1.5482638888888891E-2</v>
+        <v>1.546990740740741E-2</v>
       </c>
       <c r="B234" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D234" s="4">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E234">
         <v>10</v>
@@ -4583,16 +4600,16 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" s="8">
-        <v>1.5490740740740741E-2</v>
+        <v>1.5482638888888891E-2</v>
       </c>
       <c r="B235" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D235" s="4">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E235">
         <v>10</v>
@@ -4600,16 +4617,16 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" s="8">
-        <v>1.5498842592592594E-2</v>
+        <v>1.5490740740740741E-2</v>
       </c>
       <c r="B236" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D236" s="4">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E236">
         <v>10</v>
@@ -4617,16 +4634,16 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" s="8">
-        <v>1.5508101851851851E-2</v>
+        <v>1.5498842592592594E-2</v>
       </c>
       <c r="B237" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D237" s="4">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E237">
         <v>10</v>
@@ -4634,16 +4651,16 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" s="8">
-        <v>1.5539351851851851E-2</v>
+        <v>1.5508101851851851E-2</v>
       </c>
       <c r="B238" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D238" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E238">
         <v>10</v>
@@ -4651,16 +4668,16 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" s="8">
-        <v>1.5550925925925925E-2</v>
+        <v>1.5539351851851851E-2</v>
       </c>
       <c r="B239" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D239" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E239">
         <v>10</v>
@@ -4668,16 +4685,16 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" s="8">
-        <v>1.5557870370370373E-2</v>
+        <v>1.5550925925925925E-2</v>
       </c>
       <c r="B240" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D240" s="4">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E240">
         <v>10</v>
@@ -4685,16 +4702,16 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" s="8">
-        <v>1.5574074074074075E-2</v>
+        <v>1.5557870370370373E-2</v>
       </c>
       <c r="B241" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D241" s="4">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E241">
         <v>10</v>
@@ -4702,16 +4719,16 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" s="8">
-        <v>1.5576388888888888E-2</v>
+        <v>1.5574074074074075E-2</v>
       </c>
       <c r="B242" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D242" s="4">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E242">
         <v>10</v>
@@ -4719,16 +4736,16 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" s="8">
-        <v>1.5583333333333336E-2</v>
+        <v>1.5576388888888888E-2</v>
       </c>
       <c r="B243" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D243" s="4">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E243">
         <v>10</v>
@@ -4736,16 +4753,16 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" s="8">
-        <v>1.558912037037037E-2</v>
+        <v>1.5583333333333336E-2</v>
       </c>
       <c r="B244" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D244" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E244">
         <v>10</v>
@@ -4753,16 +4770,16 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" s="8">
-        <v>1.5608796296296296E-2</v>
+        <v>1.558912037037037E-2</v>
       </c>
       <c r="B245" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D245" s="4">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E245">
         <v>10</v>
@@ -4770,16 +4787,16 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" s="8">
-        <v>1.5646990740740739E-2</v>
+        <v>1.5608796296296296E-2</v>
       </c>
       <c r="B246" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D246" s="4">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E246">
         <v>10</v>
@@ -4787,16 +4804,16 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" s="8">
-        <v>1.5672453703703702E-2</v>
+        <v>1.5646990740740739E-2</v>
       </c>
       <c r="B247" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D247" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E247">
         <v>10</v>
@@ -4804,16 +4821,16 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" s="8">
-        <v>1.5681712962962963E-2</v>
+        <v>1.5672453703703702E-2</v>
       </c>
       <c r="B248" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D248" s="4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E248">
         <v>10</v>
@@ -4821,16 +4838,16 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" s="8">
-        <v>1.5693287037037037E-2</v>
+        <v>1.5681712962962963E-2</v>
       </c>
       <c r="B249" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D249" s="4">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E249">
         <v>10</v>
@@ -4838,16 +4855,16 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" s="8">
-        <v>1.5719907407407405E-2</v>
+        <v>1.5693287037037037E-2</v>
       </c>
       <c r="B250" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D250" s="4">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E250">
         <v>10</v>
@@ -4855,16 +4872,16 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" s="8">
-        <v>1.5729166666666666E-2</v>
+        <v>1.5719907407407405E-2</v>
       </c>
       <c r="B251" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D251" s="4">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E251">
         <v>10</v>
@@ -4872,16 +4889,16 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" s="8">
-        <v>1.5731481481481482E-2</v>
+        <v>1.5729166666666666E-2</v>
       </c>
       <c r="B252" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D252" s="4">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E252">
         <v>10</v>
@@ -4889,16 +4906,16 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" s="8">
-        <v>1.5886574074074074E-2</v>
+        <v>1.5731481481481482E-2</v>
       </c>
       <c r="B253" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D253" s="4">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E253">
         <v>10</v>
@@ -4906,16 +4923,16 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" s="8">
-        <v>1.5892361111111111E-2</v>
+        <v>1.5886574074074074E-2</v>
       </c>
       <c r="B254" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D254" s="4">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E254">
         <v>10</v>
@@ -4923,16 +4940,16 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" s="8">
-        <v>1.5895833333333331E-2</v>
+        <v>1.5892361111111111E-2</v>
       </c>
       <c r="B255" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D255" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E255">
         <v>10</v>
@@ -4940,16 +4957,16 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" s="8">
-        <v>1.5898148148148147E-2</v>
+        <v>1.5895833333333331E-2</v>
       </c>
       <c r="B256" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D256" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E256">
         <v>10</v>
@@ -4957,16 +4974,16 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" s="8">
-        <v>1.5907407407407405E-2</v>
+        <v>1.5898148148148147E-2</v>
       </c>
       <c r="B257" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D257" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E257">
         <v>10</v>
@@ -4974,16 +4991,16 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" s="8">
-        <v>1.5909722222222221E-2</v>
+        <v>1.5907407407407405E-2</v>
       </c>
       <c r="B258" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D258" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E258">
         <v>10</v>
@@ -4991,7 +5008,7 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" s="8">
-        <v>1.5915509259259258E-2</v>
+        <v>1.5909722222222221E-2</v>
       </c>
       <c r="B259" s="9" t="s">
         <v>26</v>
@@ -5011,7 +5028,7 @@
         <v>1.5915509259259258E-2</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C260" s="4" t="s">
         <v>6</v>
@@ -5020,21 +5037,21 @@
         <v>7</v>
       </c>
       <c r="E260">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" s="8">
-        <v>1.5918981481481482E-2</v>
+        <v>1.5915509259259258E-2</v>
       </c>
       <c r="B261" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C261" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D261" s="4">
         <v>7</v>
-      </c>
-      <c r="D261" s="4">
-        <v>30</v>
       </c>
       <c r="E261">
         <v>11</v>
@@ -5042,16 +5059,16 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" s="8">
-        <v>1.5938657407407405E-2</v>
+        <v>1.5918981481481482E-2</v>
       </c>
       <c r="B262" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D262" s="4">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E262">
         <v>11</v>
@@ -5059,16 +5076,16 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" s="8">
-        <v>1.5949074074074074E-2</v>
+        <v>1.5938657407407405E-2</v>
       </c>
       <c r="B263" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D263" s="4">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E263">
         <v>11</v>
@@ -5076,16 +5093,16 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" s="8">
-        <v>1.5961805555555552E-2</v>
+        <v>1.5949074074074074E-2</v>
       </c>
       <c r="B264" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D264" s="4">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E264">
         <v>11</v>
@@ -5093,16 +5110,16 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" s="8">
-        <v>1.5971064814814813E-2</v>
+        <v>1.5961805555555552E-2</v>
       </c>
       <c r="B265" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D265" s="4">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E265">
         <v>11</v>
@@ -5110,16 +5127,16 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" s="8">
-        <v>1.5973379629629629E-2</v>
+        <v>1.5971064814814813E-2</v>
       </c>
       <c r="B266" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D266" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E266">
         <v>11</v>
@@ -5127,16 +5144,16 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" s="8">
-        <v>1.5979166666666666E-2</v>
+        <v>1.5973379629629629E-2</v>
       </c>
       <c r="B267" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D267" s="4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E267">
         <v>11</v>
@@ -5144,16 +5161,16 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" s="8">
-        <v>1.5990740740740739E-2</v>
+        <v>1.5979166666666666E-2</v>
       </c>
       <c r="B268" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D268" s="4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E268">
         <v>11</v>
@@ -5161,16 +5178,16 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" s="8">
-        <v>1.6002314814814813E-2</v>
+        <v>1.5990740740740739E-2</v>
       </c>
       <c r="B269" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D269" s="4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E269">
         <v>11</v>
@@ -5178,16 +5195,16 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" s="8">
-        <v>1.6138888888888887E-2</v>
+        <v>1.6002314814814813E-2</v>
       </c>
       <c r="B270" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D270" s="4">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E270">
         <v>11</v>
@@ -5195,16 +5212,16 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" s="8">
-        <v>1.61875E-2</v>
+        <v>1.6138888888888887E-2</v>
       </c>
       <c r="B271" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D271" s="4">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E271">
         <v>11</v>
@@ -5212,16 +5229,16 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" s="8">
-        <v>1.6217592592592592E-2</v>
+        <v>1.61875E-2</v>
       </c>
       <c r="B272" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D272" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E272">
         <v>11</v>
@@ -5229,16 +5246,16 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" s="8">
-        <v>1.6225694444444442E-2</v>
+        <v>1.6217592592592592E-2</v>
       </c>
       <c r="B273" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D273" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E273">
         <v>11</v>
@@ -5246,16 +5263,16 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" s="8">
-        <v>1.6254629629629629E-2</v>
+        <v>1.6225694444444442E-2</v>
       </c>
       <c r="B274" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D274" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E274">
         <v>11</v>
@@ -5263,16 +5280,16 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" s="8">
-        <v>1.6260416666666666E-2</v>
+        <v>1.6254629629629629E-2</v>
       </c>
       <c r="B275" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D275" s="4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E275">
         <v>11</v>
@@ -5280,16 +5297,16 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" s="8">
-        <v>1.6281249999999997E-2</v>
+        <v>1.6260416666666666E-2</v>
       </c>
       <c r="B276" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D276" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E276">
         <v>11</v>
@@ -5297,16 +5314,16 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" s="8">
-        <v>1.6297453703703703E-2</v>
+        <v>1.6281249999999997E-2</v>
       </c>
       <c r="B277" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D277" s="4">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="E277">
         <v>11</v>
@@ -5314,16 +5331,16 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" s="8">
-        <v>1.6309027777777776E-2</v>
+        <v>1.6297453703703703E-2</v>
       </c>
       <c r="B278" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D278" s="4">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="E278">
         <v>11</v>
@@ -5331,16 +5348,16 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" s="8">
-        <v>1.6320601851851853E-2</v>
+        <v>1.6309027777777776E-2</v>
       </c>
       <c r="B279" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D279" s="4">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E279">
         <v>11</v>
@@ -5348,16 +5365,16 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" s="8">
-        <v>1.6469907407407409E-2</v>
+        <v>1.6320601851851853E-2</v>
       </c>
       <c r="B280" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D280" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E280">
         <v>11</v>
@@ -5365,16 +5382,16 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" s="8">
-        <v>1.6475694444444442E-2</v>
+        <v>1.6469907407407409E-2</v>
       </c>
       <c r="B281" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D281" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E281">
         <v>11</v>
@@ -5382,7 +5399,7 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" s="8">
-        <v>1.66099537037037E-2</v>
+        <v>1.6475694444444442E-2</v>
       </c>
       <c r="B282" s="9" t="s">
         <v>27</v>
@@ -5399,10 +5416,10 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" s="8">
-        <v>1.7719907407407406E-2</v>
+        <v>1.66099537037037E-2</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>9</v>
@@ -5411,21 +5428,21 @@
         <v>1</v>
       </c>
       <c r="E283">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" s="8">
-        <v>1.7814814814814815E-2</v>
+        <v>1.7719907407407406E-2</v>
       </c>
       <c r="B284" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D284" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E284">
         <v>12</v>
@@ -5433,16 +5450,16 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" s="8">
-        <v>1.7826388888888888E-2</v>
+        <v>1.7814814814814815E-2</v>
       </c>
       <c r="B285" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D285" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E285">
         <v>12</v>
@@ -5450,16 +5467,16 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" s="8">
-        <v>1.7837962962962962E-2</v>
+        <v>1.7826388888888888E-2</v>
       </c>
       <c r="B286" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D286" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E286">
         <v>12</v>
@@ -5467,16 +5484,16 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" s="8">
-        <v>1.7849537037037035E-2</v>
+        <v>1.7837962962962962E-2</v>
       </c>
       <c r="B287" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D287" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E287">
         <v>12</v>
@@ -5484,16 +5501,16 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" s="8">
-        <v>1.7944444444444443E-2</v>
+        <v>1.7849537037037035E-2</v>
       </c>
       <c r="B288" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D288" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E288">
         <v>12</v>
@@ -5501,16 +5518,16 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" s="8">
-        <v>1.795023148148148E-2</v>
+        <v>1.7944444444444443E-2</v>
       </c>
       <c r="B289" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D289" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E289">
         <v>12</v>
@@ -5518,16 +5535,16 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" s="8">
-        <v>1.7953703703703704E-2</v>
+        <v>1.795023148148148E-2</v>
       </c>
       <c r="B290" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D290" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E290">
         <v>12</v>
@@ -5535,16 +5552,16 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" s="8">
-        <v>1.8002314814814815E-2</v>
+        <v>1.7953703703703704E-2</v>
       </c>
       <c r="B291" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D291" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E291">
         <v>12</v>
@@ -5552,16 +5569,16 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" s="8">
-        <v>1.8104166666666664E-2</v>
+        <v>1.8002314814814815E-2</v>
       </c>
       <c r="B292" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D292" s="4">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E292">
         <v>12</v>
@@ -5569,16 +5586,16 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" s="8">
-        <v>1.8129629629629631E-2</v>
+        <v>1.8104166666666664E-2</v>
       </c>
       <c r="B293" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D293" s="4">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E293">
         <v>12</v>
@@ -5586,16 +5603,16 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" s="8">
-        <v>1.8136574074074072E-2</v>
+        <v>1.8129629629629631E-2</v>
       </c>
       <c r="B294" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D294" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E294">
         <v>12</v>
@@ -5603,16 +5620,16 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" s="8">
-        <v>1.8138888888888888E-2</v>
+        <v>1.8136574074074072E-2</v>
       </c>
       <c r="B295" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D295" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E295">
         <v>12</v>
@@ -5620,16 +5637,16 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" s="8">
-        <v>1.8146990740740741E-2</v>
+        <v>1.8138888888888888E-2</v>
       </c>
       <c r="B296" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D296" s="4">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E296">
         <v>12</v>
@@ -5637,16 +5654,16 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" s="8">
-        <v>1.8158564814814815E-2</v>
+        <v>1.8146990740740741E-2</v>
       </c>
       <c r="B297" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D297" s="4">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E297">
         <v>12</v>
@@ -5654,16 +5671,16 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" s="8">
-        <v>1.8164351851851852E-2</v>
+        <v>1.8158564814814815E-2</v>
       </c>
       <c r="B298" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D298" s="4">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E298">
         <v>12</v>
@@ -5671,16 +5688,16 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" s="8">
-        <v>1.8167824074074072E-2</v>
+        <v>1.8164351851851852E-2</v>
       </c>
       <c r="B299" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D299" s="4">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E299">
         <v>12</v>
@@ -5688,16 +5705,16 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" s="8">
-        <v>1.8195601851851852E-2</v>
+        <v>1.8167824074074072E-2</v>
       </c>
       <c r="B300" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D300" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E300">
         <v>12</v>
@@ -5705,16 +5722,16 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" s="8">
-        <v>1.8256944444444444E-2</v>
+        <v>1.8195601851851852E-2</v>
       </c>
       <c r="B301" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D301" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E301">
         <v>12</v>
@@ -5722,16 +5739,16 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" s="8">
-        <v>1.8309027777777778E-2</v>
+        <v>1.8256944444444444E-2</v>
       </c>
       <c r="B302" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D302" s="4">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E302">
         <v>12</v>
@@ -5739,16 +5756,16 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" s="8">
-        <v>1.8317129629629631E-2</v>
+        <v>1.8309027777777778E-2</v>
       </c>
       <c r="B303" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D303" s="4">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E303">
         <v>12</v>
@@ -5756,16 +5773,16 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" s="8">
-        <v>1.8334490740740741E-2</v>
+        <v>1.8317129629629631E-2</v>
       </c>
       <c r="B304" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D304" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E304">
         <v>12</v>
@@ -5773,16 +5790,16 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" s="8">
-        <v>1.8340277777777775E-2</v>
+        <v>1.8334490740740741E-2</v>
       </c>
       <c r="B305" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D305" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E305">
         <v>12</v>
@@ -5790,16 +5807,16 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" s="8">
-        <v>1.8357638888888889E-2</v>
+        <v>1.8340277777777775E-2</v>
       </c>
       <c r="B306" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D306" s="4">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E306">
         <v>12</v>
@@ -5807,16 +5824,16 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" s="8">
-        <v>1.838425925925926E-2</v>
+        <v>1.8357638888888889E-2</v>
       </c>
       <c r="B307" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D307" s="4">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E307">
         <v>12</v>
@@ -5824,16 +5841,16 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" s="8">
-        <v>1.839814814814815E-2</v>
+        <v>1.838425925925926E-2</v>
       </c>
       <c r="B308" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D308" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E308">
         <v>12</v>
@@ -5841,7 +5858,7 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" s="8">
-        <v>1.8414351851851852E-2</v>
+        <v>1.839814814814815E-2</v>
       </c>
       <c r="B309" s="9" t="s">
         <v>28</v>
@@ -5858,10 +5875,10 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" s="8">
-        <v>1.8866898148148147E-2</v>
+        <v>1.8414351851851852E-2</v>
       </c>
       <c r="B310" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>8</v>
@@ -5870,21 +5887,21 @@
         <v>2</v>
       </c>
       <c r="E310">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" s="8">
-        <v>1.8868055555555555E-2</v>
+        <v>1.8866898148148147E-2</v>
       </c>
       <c r="B311" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D311" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E311">
         <v>13</v>
@@ -5892,16 +5909,16 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" s="8">
-        <v>1.8879629629629628E-2</v>
+        <v>1.8868055555555555E-2</v>
       </c>
       <c r="B312" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D312" s="4">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E312">
         <v>13</v>
@@ -5909,16 +5926,16 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" s="8">
-        <v>1.8891203703703702E-2</v>
+        <v>1.8879629629629628E-2</v>
       </c>
       <c r="B313" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D313" s="4">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E313">
         <v>13</v>
@@ -5926,16 +5943,16 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" s="8">
-        <v>1.8896990740740739E-2</v>
+        <v>1.8891203703703702E-2</v>
       </c>
       <c r="B314" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D314" s="4">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E314">
         <v>13</v>
@@ -5943,16 +5960,16 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" s="8">
-        <v>1.8899305555555555E-2</v>
+        <v>1.8896990740740739E-2</v>
       </c>
       <c r="B315" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D315" s="4">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E315">
         <v>13</v>
@@ -5960,16 +5977,16 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" s="8">
-        <v>1.9122685185185184E-2</v>
+        <v>1.8899305555555555E-2</v>
       </c>
       <c r="B316" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D316" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E316">
         <v>13</v>
@@ -5977,16 +5994,16 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" s="8">
-        <v>1.9174768518518518E-2</v>
+        <v>1.9122685185185184E-2</v>
       </c>
       <c r="B317" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D317" s="4">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E317">
         <v>13</v>
@@ -5994,16 +6011,16 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" s="8">
-        <v>1.9186342592592592E-2</v>
+        <v>1.9174768518518518E-2</v>
       </c>
       <c r="B318" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D318" s="4">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E318">
         <v>13</v>
@@ -6011,16 +6028,16 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" s="8">
-        <v>1.9239583333333334E-2</v>
+        <v>1.9186342592592592E-2</v>
       </c>
       <c r="B319" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D319" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E319">
         <v>13</v>
@@ -6028,16 +6045,16 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" s="8">
-        <v>1.9256944444444441E-2</v>
+        <v>1.9239583333333334E-2</v>
       </c>
       <c r="B320" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D320" s="4">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="E320">
         <v>13</v>
@@ -6045,16 +6062,16 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" s="8">
-        <v>1.9262731481481481E-2</v>
+        <v>1.9256944444444441E-2</v>
       </c>
       <c r="B321" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D321" s="4">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E321">
         <v>13</v>
@@ -6062,16 +6079,16 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" s="8">
-        <v>1.9283564814814812E-2</v>
+        <v>1.9262731481481481E-2</v>
       </c>
       <c r="B322" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D322" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E322">
         <v>13</v>
@@ -6079,16 +6096,16 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" s="8">
-        <v>1.9372685185185184E-2</v>
+        <v>1.9283564814814812E-2</v>
       </c>
       <c r="B323" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D323" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E323">
         <v>13</v>
@@ -6096,16 +6113,16 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" s="8">
-        <v>1.9452546296296298E-2</v>
+        <v>1.9372685185185184E-2</v>
       </c>
       <c r="B324" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D324" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E324">
         <v>13</v>
@@ -6113,16 +6130,16 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" s="8">
-        <v>1.9512731481481478E-2</v>
+        <v>1.9452546296296298E-2</v>
       </c>
       <c r="B325" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D325" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E325">
         <v>13</v>
@@ -6130,16 +6147,16 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" s="8">
-        <v>1.951736111111111E-2</v>
+        <v>1.9512731481481478E-2</v>
       </c>
       <c r="B326" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D326" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E326">
         <v>13</v>
@@ -6147,16 +6164,16 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" s="8">
-        <v>1.9520833333333331E-2</v>
+        <v>1.951736111111111E-2</v>
       </c>
       <c r="B327" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D327" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E327">
         <v>13</v>
@@ -6164,16 +6181,16 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" s="8">
-        <v>1.9534722222222224E-2</v>
+        <v>1.9520833333333331E-2</v>
       </c>
       <c r="B328" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C328" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D328" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E328">
         <v>13</v>
@@ -6181,16 +6198,16 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" s="8">
-        <v>1.9549768518518518E-2</v>
+        <v>1.9534722222222224E-2</v>
       </c>
       <c r="B329" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D329" s="4">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E329">
         <v>13</v>
@@ -6198,7 +6215,7 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" s="8">
-        <v>1.9561342592592589E-2</v>
+        <v>1.9549768518518518E-2</v>
       </c>
       <c r="B330" s="9" t="s">
         <v>30</v>
@@ -6213,8 +6230,1606 @@
         <v>13</v>
       </c>
     </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A331" s="8">
+        <v>1.9561342592592589E-2</v>
+      </c>
+      <c r="B331" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C331" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D331" s="4">
+        <v>19</v>
+      </c>
+      <c r="E331">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A332" s="12">
+        <v>1.0141203703703704E-2</v>
+      </c>
+      <c r="B332" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C332" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D332" s="10">
+        <v>1</v>
+      </c>
+      <c r="E332">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A333" s="12">
+        <v>1.0168981481481482E-2</v>
+      </c>
+      <c r="B333" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C333" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D333" s="10">
+        <v>19</v>
+      </c>
+      <c r="E333">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A334" s="12">
+        <v>1.0185185185185186E-2</v>
+      </c>
+      <c r="B334" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C334" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D334" s="10">
+        <v>1</v>
+      </c>
+      <c r="E334">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A335" s="12">
+        <v>1.019675925925926E-2</v>
+      </c>
+      <c r="B335" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C335" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D335" s="10">
+        <v>33</v>
+      </c>
+      <c r="E335">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A336" s="12">
+        <v>1.021875E-2</v>
+      </c>
+      <c r="B336" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C336" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D336" s="10">
+        <v>1</v>
+      </c>
+      <c r="E336">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A337" s="12">
+        <v>1.0226851851851852E-2</v>
+      </c>
+      <c r="B337" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C337" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D337" s="10">
+        <v>33</v>
+      </c>
+      <c r="E337">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A338" s="12">
+        <v>1.0260416666666668E-2</v>
+      </c>
+      <c r="B338" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C338" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D338" s="10">
+        <v>1</v>
+      </c>
+      <c r="E338">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A339" s="12">
+        <v>1.0280092592592592E-2</v>
+      </c>
+      <c r="B339" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C339" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D339" s="10">
+        <v>33</v>
+      </c>
+      <c r="E339">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A340" s="12">
+        <v>1.0288194444444444E-2</v>
+      </c>
+      <c r="B340" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C340" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D340" s="10">
+        <v>1</v>
+      </c>
+      <c r="E340">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A341" s="12">
+        <v>1.0409722222222223E-2</v>
+      </c>
+      <c r="B341" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C341" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D341" s="10">
+        <v>14</v>
+      </c>
+      <c r="E341">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A342" s="12">
+        <v>1.0421296296296297E-2</v>
+      </c>
+      <c r="B342" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C342" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D342" s="10">
+        <v>33</v>
+      </c>
+      <c r="E342">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A343" s="12">
+        <v>1.0425925925925929E-2</v>
+      </c>
+      <c r="B343" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C343" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D343" s="10">
+        <v>1</v>
+      </c>
+      <c r="E343">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A344" s="12">
+        <v>1.0438657407407407E-2</v>
+      </c>
+      <c r="B344" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C344" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D344" s="10">
+        <v>33</v>
+      </c>
+      <c r="E344">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A345" s="12">
+        <v>1.0453703703703705E-2</v>
+      </c>
+      <c r="B345" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C345" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D345" s="10">
+        <v>1</v>
+      </c>
+      <c r="E345">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A346" s="12">
+        <v>1.0493055555555556E-2</v>
+      </c>
+      <c r="B346" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C346" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D346" s="10">
+        <v>33</v>
+      </c>
+      <c r="E346">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A347" s="12">
+        <v>1.0510416666666668E-2</v>
+      </c>
+      <c r="B347" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C347" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D347" s="10">
+        <v>1</v>
+      </c>
+      <c r="E347">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A348" s="12">
+        <v>1.0554398148148148E-2</v>
+      </c>
+      <c r="B348" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C348" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D348" s="10">
+        <v>33</v>
+      </c>
+      <c r="E348">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A349" s="12">
+        <v>1.056365740740741E-2</v>
+      </c>
+      <c r="B349" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C349" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D349" s="10">
+        <v>1</v>
+      </c>
+      <c r="E349">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A350" s="12">
+        <v>1.0574074074074073E-2</v>
+      </c>
+      <c r="B350" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C350" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D350" s="10">
+        <v>33</v>
+      </c>
+      <c r="E350">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A351" s="12">
+        <v>1.060763888888889E-2</v>
+      </c>
+      <c r="B351" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C351" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D351" s="10">
+        <v>1</v>
+      </c>
+      <c r="E351">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A352" s="12">
+        <v>1.0644675925925925E-2</v>
+      </c>
+      <c r="B352" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C352" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D352" s="10">
+        <v>33</v>
+      </c>
+      <c r="E352">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A353" s="12">
+        <v>1.0656250000000001E-2</v>
+      </c>
+      <c r="B353" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C353" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D353" s="10">
+        <v>1</v>
+      </c>
+      <c r="E353">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A354" s="12">
+        <v>1.071412037037037E-2</v>
+      </c>
+      <c r="B354" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C354" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D354" s="10">
+        <v>33</v>
+      </c>
+      <c r="E354">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A355" s="12">
+        <v>1.0719907407407407E-2</v>
+      </c>
+      <c r="B355" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C355" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D355" s="10">
+        <v>1</v>
+      </c>
+      <c r="E355">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A356" s="12">
+        <v>1.0743055555555556E-2</v>
+      </c>
+      <c r="B356" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C356" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D356" s="10">
+        <v>7</v>
+      </c>
+      <c r="E356">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A357" s="12">
+        <v>1.0748842592592595E-2</v>
+      </c>
+      <c r="B357" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C357" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D357" s="10">
+        <v>1</v>
+      </c>
+      <c r="E357">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A358" s="12">
+        <v>1.0781250000000001E-2</v>
+      </c>
+      <c r="B358" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C358" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D358" s="10">
+        <v>14</v>
+      </c>
+      <c r="E358">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A359" s="12">
+        <v>1.0787037037037039E-2</v>
+      </c>
+      <c r="B359" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C359" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D359" s="10">
+        <v>33</v>
+      </c>
+      <c r="E359">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A360" s="12">
+        <v>1.0789351851851852E-2</v>
+      </c>
+      <c r="B360" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C360" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D360" s="10">
+        <v>14</v>
+      </c>
+      <c r="E360">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A361" s="12">
+        <v>1.0798611111111113E-2</v>
+      </c>
+      <c r="B361" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C361" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D361" s="10">
+        <v>1</v>
+      </c>
+      <c r="E361">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A362" s="12">
+        <v>1.0806712962962964E-2</v>
+      </c>
+      <c r="B362" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C362" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D362" s="10">
+        <v>14</v>
+      </c>
+      <c r="E362">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A363" s="12">
+        <v>1.083564814814815E-2</v>
+      </c>
+      <c r="B363" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C363" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D363" s="10">
+        <v>14</v>
+      </c>
+      <c r="E363">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A364" s="13">
+        <v>3.2152777777777778E-3</v>
+      </c>
+      <c r="B364" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C364" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D364" s="10">
+        <v>1</v>
+      </c>
+      <c r="E364">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A365" s="13">
+        <v>3.2384259259259258E-3</v>
+      </c>
+      <c r="B365" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C365" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D365" s="10">
+        <v>2</v>
+      </c>
+      <c r="E365">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A366" s="13">
+        <v>3.2465277777777779E-3</v>
+      </c>
+      <c r="B366" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C366" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D366" s="10">
+        <v>1</v>
+      </c>
+      <c r="E366">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A367" s="13">
+        <v>3.3229166666666676E-3</v>
+      </c>
+      <c r="B367" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C367" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D367" s="10">
+        <v>2</v>
+      </c>
+      <c r="E367">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A368" s="13">
+        <v>3.3437500000000004E-3</v>
+      </c>
+      <c r="B368" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C368" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D368" s="10">
+        <v>1</v>
+      </c>
+      <c r="E368">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A369" s="13">
+        <v>3.3946759259259269E-3</v>
+      </c>
+      <c r="B369" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C369" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D369" s="10">
+        <v>2</v>
+      </c>
+      <c r="E369">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A370" s="13">
+        <v>3.4039351851851861E-3</v>
+      </c>
+      <c r="B370" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C370" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D370" s="10">
+        <v>1</v>
+      </c>
+      <c r="E370">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A371" s="13">
+        <v>3.449074074074074E-3</v>
+      </c>
+      <c r="B371" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C371" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D371" s="10">
+        <v>2</v>
+      </c>
+      <c r="E371">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A372" s="13">
+        <v>3.4583333333333341E-3</v>
+      </c>
+      <c r="B372" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C372" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D372" s="10">
+        <v>33</v>
+      </c>
+      <c r="E372">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A373" s="13">
+        <v>3.4849537037037045E-3</v>
+      </c>
+      <c r="B373" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C373" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D373" s="10">
+        <v>1</v>
+      </c>
+      <c r="E373">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A374" s="13">
+        <v>3.6145833333333334E-3</v>
+      </c>
+      <c r="B374" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C374" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D374" s="10">
+        <v>7</v>
+      </c>
+      <c r="E374">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A375" s="13">
+        <v>3.620370370370371E-3</v>
+      </c>
+      <c r="B375" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C375" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D375" s="10">
+        <v>2</v>
+      </c>
+      <c r="E375">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A376" s="13">
+        <v>3.6238425925925934E-3</v>
+      </c>
+      <c r="B376" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C376" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D376" s="10">
+        <v>1</v>
+      </c>
+      <c r="E376">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A377" s="13">
+        <v>3.7303240740740751E-3</v>
+      </c>
+      <c r="B377" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C377" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D377" s="10">
+        <v>2</v>
+      </c>
+      <c r="E377">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A378" s="13">
+        <v>3.8344907407407416E-3</v>
+      </c>
+      <c r="B378" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C378" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D378" s="10">
+        <v>1</v>
+      </c>
+      <c r="E378">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A379" s="13">
+        <v>3.8460648148148152E-3</v>
+      </c>
+      <c r="B379" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C379" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D379" s="10">
+        <v>33</v>
+      </c>
+      <c r="E379">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A380" s="13">
+        <v>3.851851851851852E-3</v>
+      </c>
+      <c r="B380" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C380" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D380" s="10">
+        <v>2</v>
+      </c>
+      <c r="E380">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A381" s="13">
+        <v>3.8657407407407416E-3</v>
+      </c>
+      <c r="B381" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C381" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D381" s="10">
+        <v>19</v>
+      </c>
+      <c r="E381">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A382" s="13">
+        <v>3.8726851851851856E-3</v>
+      </c>
+      <c r="B382" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C382" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D382" s="10">
+        <v>30</v>
+      </c>
+      <c r="E382">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A383" s="13">
+        <v>3.8784722222222224E-3</v>
+      </c>
+      <c r="B383" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C383" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D383" s="10">
+        <v>2</v>
+      </c>
+      <c r="E383">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A384" s="15">
+        <v>3.9097222222222224E-3</v>
+      </c>
+      <c r="B384" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C384" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D384" s="10">
+        <v>2</v>
+      </c>
+      <c r="E384">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A385" s="13">
+        <v>1.9967592592592589E-2</v>
+      </c>
+      <c r="B385" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C385" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D385" s="10">
+        <v>2</v>
+      </c>
+      <c r="E385">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A386" s="13">
+        <v>1.9990740740740743E-2</v>
+      </c>
+      <c r="B386" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C386" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D386" s="10">
+        <v>8</v>
+      </c>
+      <c r="E386">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A387" s="13">
+        <v>2.0002314814814813E-2</v>
+      </c>
+      <c r="B387" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C387" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D387" s="10">
+        <v>19</v>
+      </c>
+      <c r="E387">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A388" s="13">
+        <v>2.0027777777777776E-2</v>
+      </c>
+      <c r="B388" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C388" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D388" s="10">
+        <v>8</v>
+      </c>
+      <c r="E388">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A389" s="13">
+        <v>2.0085648148148148E-2</v>
+      </c>
+      <c r="B389" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C389" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D389" s="10">
+        <v>2</v>
+      </c>
+      <c r="E389">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A390" s="13">
+        <v>2.0111111111111111E-2</v>
+      </c>
+      <c r="B390" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C390" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D390" s="10">
+        <v>33</v>
+      </c>
+      <c r="E390">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A391" s="13">
+        <v>2.0114583333333332E-2</v>
+      </c>
+      <c r="B391" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C391" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D391" s="10">
+        <v>8</v>
+      </c>
+      <c r="E391">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A392" s="13">
+        <v>2.0134259259259258E-2</v>
+      </c>
+      <c r="B392" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C392" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D392" s="10">
+        <v>1</v>
+      </c>
+      <c r="E392">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A393" s="13">
+        <v>2.0142361111111111E-2</v>
+      </c>
+      <c r="B393" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C393" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D393" s="10">
+        <v>8</v>
+      </c>
+      <c r="E393">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A394" s="13">
+        <v>2.0160879629629626E-2</v>
+      </c>
+      <c r="B394" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C394" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D394" s="10">
+        <v>2</v>
+      </c>
+      <c r="E394">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A395" s="13">
+        <v>2.0168981481481479E-2</v>
+      </c>
+      <c r="B395" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C395" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D395" s="10">
+        <v>1</v>
+      </c>
+      <c r="E395">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A396" s="13">
+        <v>2.0180555555555556E-2</v>
+      </c>
+      <c r="B396" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C396" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D396" s="10">
+        <v>2</v>
+      </c>
+      <c r="E396">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A397" s="13">
+        <v>2.0186342592592593E-2</v>
+      </c>
+      <c r="B397" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C397" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D397" s="10">
+        <v>8</v>
+      </c>
+      <c r="E397">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A398" s="13">
+        <v>2.0215277777777773E-2</v>
+      </c>
+      <c r="B398" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C398" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D398" s="10">
+        <v>2</v>
+      </c>
+      <c r="E398">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A399" s="13">
+        <v>2.0229166666666666E-2</v>
+      </c>
+      <c r="B399" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C399" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D399" s="10">
+        <v>33</v>
+      </c>
+      <c r="E399">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A400" s="13">
+        <v>2.0283564814814813E-2</v>
+      </c>
+      <c r="B400" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C400" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D400" s="10">
+        <v>1</v>
+      </c>
+      <c r="E400">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A401" s="13">
+        <v>2.030324074074074E-2</v>
+      </c>
+      <c r="B401" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C401" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D401" s="10">
+        <v>19</v>
+      </c>
+      <c r="E401">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A402" s="13">
+        <v>2.0309027777777777E-2</v>
+      </c>
+      <c r="B402" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C402" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D402" s="10">
+        <v>33</v>
+      </c>
+      <c r="E402">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A403" s="13">
+        <v>2.0312500000000001E-2</v>
+      </c>
+      <c r="B403" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C403" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D403" s="10">
+        <v>2</v>
+      </c>
+      <c r="E403">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A404" s="13">
+        <v>2.032060185185185E-2</v>
+      </c>
+      <c r="B404" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C404" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D404" s="10">
+        <v>19</v>
+      </c>
+      <c r="E404">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A405" s="13">
+        <v>2.0377314814814813E-2</v>
+      </c>
+      <c r="B405" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C405" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D405" s="10">
+        <v>2</v>
+      </c>
+      <c r="E405">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A406" s="13">
+        <v>2.0388888888888883E-2</v>
+      </c>
+      <c r="B406" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C406" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D406" s="10">
+        <v>1</v>
+      </c>
+      <c r="E406">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A407" s="13">
+        <v>2.0394675925925927E-2</v>
+      </c>
+      <c r="B407" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C407" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D407" s="10">
+        <v>19</v>
+      </c>
+      <c r="E407">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A408" s="13">
+        <v>2.039699074074074E-2</v>
+      </c>
+      <c r="B408" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C408" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D408" s="10">
+        <v>1</v>
+      </c>
+      <c r="E408">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A409" s="13">
+        <v>2.0414351851851854E-2</v>
+      </c>
+      <c r="B409" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C409" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D409" s="10">
+        <v>7</v>
+      </c>
+      <c r="E409">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A410" s="13">
+        <v>2.0420138888888887E-2</v>
+      </c>
+      <c r="B410" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C410" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D410" s="10">
+        <v>9</v>
+      </c>
+      <c r="E410">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A411" s="13">
+        <v>2.0489583333333332E-2</v>
+      </c>
+      <c r="B411" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C411" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D411" s="10">
+        <v>19</v>
+      </c>
+      <c r="E411">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A412" s="13">
+        <v>2.0493055555555553E-2</v>
+      </c>
+      <c r="B412" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C412" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D412" s="10">
+        <v>1</v>
+      </c>
+      <c r="E412">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A413" s="13">
+        <v>2.050462962962963E-2</v>
+      </c>
+      <c r="B413" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C413" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D413" s="10">
+        <v>33</v>
+      </c>
+      <c r="E413">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A414" s="13">
+        <v>2.0512731481481479E-2</v>
+      </c>
+      <c r="B414" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C414" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D414" s="10">
+        <v>2</v>
+      </c>
+      <c r="E414">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A415" s="13">
+        <v>2.052199074074074E-2</v>
+      </c>
+      <c r="B415" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C415" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D415" s="10">
+        <v>19</v>
+      </c>
+      <c r="E415">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A416" s="13">
+        <v>2.0533564814814814E-2</v>
+      </c>
+      <c r="B416" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C416" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D416" s="10">
+        <v>2</v>
+      </c>
+      <c r="E416">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A417" s="13">
+        <v>2.0556712962962961E-2</v>
+      </c>
+      <c r="B417" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C417" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D417" s="10">
+        <v>30</v>
+      </c>
+      <c r="E417">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A418" s="13">
+        <v>2.0559027777777777E-2</v>
+      </c>
+      <c r="B418" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C418" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D418" s="10">
+        <v>33</v>
+      </c>
+      <c r="E418">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A419" s="13">
+        <v>2.0599537037037034E-2</v>
+      </c>
+      <c r="B419" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C419" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D419" s="10">
+        <v>2</v>
+      </c>
+      <c r="E419">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A420" s="13">
+        <v>2.0608796296296295E-2</v>
+      </c>
+      <c r="B420" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C420" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D420" s="10">
+        <v>33</v>
+      </c>
+      <c r="E420">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A421" s="13">
+        <v>2.0631944444444442E-2</v>
+      </c>
+      <c r="B421" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C421" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D421" s="10">
+        <v>1</v>
+      </c>
+      <c r="E421">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A422" s="13">
+        <v>2.0635416666666663E-2</v>
+      </c>
+      <c r="B422" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C422" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D422" s="10">
+        <v>2</v>
+      </c>
+      <c r="E422">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A423" s="13">
+        <v>2.0658564814814814E-2</v>
+      </c>
+      <c r="B423" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C423" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D423" s="10">
+        <v>1</v>
+      </c>
+      <c r="E423">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A424" s="13">
+        <v>2.0662037037037038E-2</v>
+      </c>
+      <c r="B424" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C424" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D424" s="10">
+        <v>1</v>
+      </c>
+      <c r="E424">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D330" xr:uid="{9F0D2CA5-D885-470B-9FBB-A4D803F02791}"/>
+  <autoFilter ref="A1:D331" xr:uid="{9F0D2CA5-D885-470B-9FBB-A4D803F02791}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
